--- a/fevereiro.xlsx
+++ b/fevereiro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesley\PycharmProjects\EstudoPython2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641D2ED6-8042-4F75-BF4F-28484FA0B880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E126E31-99BA-4865-95FD-8F78C448ED51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{68ED5FCD-D377-4BA7-9DBE-F386F8CCD573}"/>
   </bookViews>
@@ -3404,7 +3404,7 @@
   <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3426,7 +3426,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>56000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3514,7 +3514,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>40994</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
